--- a/data-code.xlsx
+++ b/data-code.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>LB5MR8A0K</t>
   </si>
@@ -32,160 +32,97 @@
     <t>6FSE50DKG</t>
   </si>
   <si>
+    <t>MVXSV63W9</t>
+  </si>
+  <si>
+    <t>NNP82G3KS</t>
+  </si>
+  <si>
+    <t>8KLH8FCQY</t>
+  </si>
+  <si>
+    <t>DXJX5QW4P</t>
+  </si>
+  <si>
+    <t>I7N3X5FUV</t>
+  </si>
+  <si>
+    <t>BQXEZJQDU</t>
+  </si>
+  <si>
+    <t>0943112892</t>
+  </si>
+  <si>
+    <t>0943331353</t>
+  </si>
+  <si>
+    <t>0832394235</t>
+  </si>
+  <si>
+    <t>0949766552</t>
+  </si>
+  <si>
+    <t>0919334491</t>
+  </si>
+  <si>
+    <t>0915787658</t>
+  </si>
+  <si>
+    <t>0979994499</t>
+  </si>
+  <si>
+    <t>0949585121</t>
+  </si>
+  <si>
+    <t>0946486094</t>
+  </si>
+  <si>
+    <t>PXSS7F51R</t>
+  </si>
+  <si>
+    <t>DYLDQS4LI</t>
+  </si>
+  <si>
+    <t>AAKXA21A2</t>
+  </si>
+  <si>
+    <t>0943405985</t>
+  </si>
+  <si>
+    <t>0944108115</t>
+  </si>
+  <si>
+    <t>61JYKIG04</t>
+  </si>
+  <si>
     <t>U38CHIP35</t>
   </si>
   <si>
-    <t>MVXSV63W9</t>
-  </si>
-  <si>
-    <t>61JYKIG04</t>
-  </si>
-  <si>
-    <t>NNP82G3KS</t>
-  </si>
-  <si>
-    <t>8KLH8FCQY</t>
-  </si>
-  <si>
-    <t>DXJX5QW4P</t>
-  </si>
-  <si>
-    <t>I7N3X5FUV</t>
-  </si>
-  <si>
-    <t>Q1Y7WXP0V</t>
-  </si>
-  <si>
-    <t>VIHZ2MM91</t>
-  </si>
-  <si>
-    <t>BQXEZJQDU</t>
-  </si>
-  <si>
-    <t>0943112892</t>
-  </si>
-  <si>
-    <t>0943331353</t>
-  </si>
-  <si>
-    <t>0832394235</t>
+    <t>AVJYWF9U4</t>
+  </si>
+  <si>
+    <t>YFJVCELXO</t>
+  </si>
+  <si>
+    <t>52C14LEQ0</t>
+  </si>
+  <si>
+    <t>T9TZSKSN2</t>
+  </si>
+  <si>
+    <t>0971410471</t>
   </si>
   <si>
     <t>0912365767</t>
   </si>
   <si>
-    <t>0949766552</t>
-  </si>
-  <si>
-    <t>0971410471</t>
-  </si>
-  <si>
-    <t>0919334491</t>
-  </si>
-  <si>
-    <t>0915787658</t>
-  </si>
-  <si>
-    <t>0979994499</t>
+    <t>0915995828</t>
   </si>
   <si>
     <t>0373607359</t>
   </si>
   <si>
-    <t>0949585121</t>
-  </si>
-  <si>
-    <t>0946486094</t>
-  </si>
-  <si>
-    <t>0945422334</t>
-  </si>
-  <si>
-    <t>PXSS7F51R</t>
-  </si>
-  <si>
-    <t>DYLDQS4LI</t>
-  </si>
-  <si>
-    <t>AVJYWF9U4</t>
-  </si>
-  <si>
-    <t>YFJVCELXO</t>
-  </si>
-  <si>
-    <t>AAKXA21A2</t>
-  </si>
-  <si>
-    <t>52C14LEQ0</t>
-  </si>
-  <si>
-    <t>T9TZSKSN2</t>
-  </si>
-  <si>
-    <t>0943405985</t>
-  </si>
-  <si>
-    <t>0915995828</t>
-  </si>
-  <si>
-    <t>anh Bảnh</t>
-  </si>
-  <si>
-    <t>Anh Hải</t>
-  </si>
-  <si>
-    <t>ĐL Trương Nghỉ</t>
-  </si>
-  <si>
-    <t>ĐL Chí Nguyện</t>
-  </si>
-  <si>
-    <t>Thắm</t>
-  </si>
-  <si>
-    <t>TTPP Tuấn Khanh</t>
-  </si>
-  <si>
-    <t>Trần Minh Phúc</t>
-  </si>
-  <si>
-    <t>ĐL Quách Thừa</t>
-  </si>
-  <si>
-    <t>ĐL Tuấn Kiệt</t>
-  </si>
-  <si>
-    <t>Như</t>
-  </si>
-  <si>
-    <t>Nhiên</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anh Hiện </t>
-  </si>
-  <si>
-    <t>ĐL Phúc Sole</t>
-  </si>
-  <si>
-    <t>Thuần</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chú Xuân </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiên </t>
-  </si>
-  <si>
-    <t>Hạp</t>
-  </si>
-  <si>
-    <t>Lãm</t>
-  </si>
-  <si>
     <t>0914819512</t>
-  </si>
-  <si>
-    <t>0944108115</t>
   </si>
   <si>
     <t>0943514851</t>
@@ -195,7 +132,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,6 +152,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -268,24 +211,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -618,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,293 +581,226 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C1" t="str">
         <f>CONCATENATE(REPT("x",LEN(B1)-3),RIGHT(B1,3))</f>
         <v>xxxxxxx892</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>34</v>
-      </c>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C2" t="str">
-        <f t="shared" ref="C2:C65" si="0">CONCATENATE(REPT("x",LEN(B2)-3),RIGHT(B2,3))</f>
+        <f t="shared" ref="C2:C17" si="0">CONCATENATE(REPT("x",LEN(B2)-3),RIGHT(B2,3))</f>
         <v>xxxxxxx353</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>35</v>
-      </c>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" si="0"/>
         <v>xxxxxxx471</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>51</v>
-      </c>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
         <v>xxxxxxx491</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>36</v>
-      </c>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
         <v>xxxxxxx658</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>37</v>
-      </c>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
         <v>xxxxxxx985</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>38</v>
-      </c>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
         <v>xxxxxxx767</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
         <v>xxxxxxx552</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
         <v>xxxxxxx235</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
         <v>xxxxxxx499</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>42</v>
-      </c>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
         <v>xxxxxxx094</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
         <v>xxxxxxx828</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>52</v>
+        <v>25</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
         <v>xxxxxxx512</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
         <v>xxxxxxx121</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>24</v>
+      <c r="A15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
-        <v>xxxxxxx334</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>47</v>
+        <v>xxxxxxx115</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>24</v>
+      <c r="A16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
-        <v>xxxxxxx334</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>53</v>
+        <v>xxxxxxx851</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
-        <v>xxxxxxx115</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" t="str">
-        <f t="shared" si="0"/>
-        <v>xxxxxxx851</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" t="str">
-        <f t="shared" si="0"/>
         <v>xxxxxxx359</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A764:A1048576 A1:A689">
+  <conditionalFormatting sqref="A755:A1048576 A1:A680">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>